--- a/后端/ORM.xlsx
+++ b/后端/ORM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notes\后端\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628444C-F1B1-4307-817F-211D19F52EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
   <si>
     <t>操作类型</t>
   </si>
@@ -311,18 +317,52 @@
   <si>
     <t>删除某条数据</t>
   </si>
+  <si>
+    <t>first()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>last()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>count()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exists()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回第一条（最旧）数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回最后一条（最新）数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回匹配的数据的数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断数据是否存在，返回bool值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,151 +380,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -492,8 +388,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,198 +419,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -716,255 +447,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,62 +487,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1311,21 +762,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -1337,7 +787,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,14 +816,14 @@
       <c r="J1" s="6"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1393,14 +843,14 @@
       <c r="J2" s="6"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1420,14 +870,14 @@
       <c r="J3" s="6"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1449,14 +899,14 @@
       <c r="J4" s="6"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1478,14 +928,14 @@
       <c r="J5" s="6"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1507,14 +957,14 @@
       <c r="J6" s="6"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1536,164 +986,160 @@
       <c r="J7" s="6"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
+      <c r="C8" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
+      <c r="C9" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
+      <c r="E10" s="7"/>
+      <c r="F10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>40</v>
@@ -1702,76 +1148,76 @@
       <c r="J13" s="6"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>56</v>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>18</v>
@@ -1783,22 +1229,22 @@
       <c r="J16" s="6"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
@@ -1810,22 +1256,22 @@
       <c r="J17" s="6"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
@@ -1837,22 +1283,22 @@
       <c r="J18" s="6"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>64</v>
+      <c r="C19" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
@@ -1864,22 +1310,22 @@
       <c r="J19" s="6"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
@@ -1891,22 +1337,22 @@
       <c r="J20" s="6"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>68</v>
+      <c r="C21" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>18</v>
@@ -1918,22 +1364,22 @@
       <c r="J21" s="6"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>70</v>
+      <c r="C22" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>18</v>
@@ -1945,22 +1391,22 @@
       <c r="J22" s="6"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>72</v>
+      <c r="C23" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>18</v>
@@ -1972,22 +1418,22 @@
       <c r="J23" s="6"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>74</v>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>18</v>
@@ -1999,55 +1445,49 @@
       <c r="J24" s="6"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>18</v>
@@ -2059,134 +1499,196 @@
       <c r="J26" s="6"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="6"/>
@@ -2199,7 +1701,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="6"/>
@@ -2212,7 +1714,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="6"/>
@@ -2225,7 +1727,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="6"/>
@@ -2238,7 +1740,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
@@ -2251,7 +1753,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="6"/>
@@ -2264,7 +1766,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="6"/>
@@ -2277,7 +1779,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="6"/>
@@ -2290,7 +1792,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
@@ -2303,7 +1805,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
@@ -2316,7 +1818,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
@@ -2329,7 +1831,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
@@ -2342,7 +1844,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
@@ -2355,7 +1857,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
@@ -2368,7 +1870,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
@@ -2381,7 +1883,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="6"/>
@@ -2394,7 +1896,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="6"/>
@@ -2407,7 +1909,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="6"/>
@@ -2420,7 +1922,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="6"/>
@@ -2433,7 +1935,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6"/>
@@ -2446,7 +1948,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="6"/>
@@ -2459,8 +1961,60 @@
       <c r="J54" s="6"/>
       <c r="K54" s="10"/>
     </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="10"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/后端/ORM.xlsx
+++ b/后端/ORM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notes\后端\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A628444C-F1B1-4307-817F-211D19F52EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA50A97-F93C-43D0-AE8D-800DDB22E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="107">
   <si>
     <t>操作类型</t>
   </si>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能用update方法更新数据</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -457,9 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,26 +477,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,1246 +780,1250 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.75" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="I5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="10"/>
-    </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="10"/>
-    </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="10"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/后端/ORM.xlsx
+++ b/后端/ORM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notes\后端\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA50A97-F93C-43D0-AE8D-800DDB22E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t>操作类型</t>
   </si>
@@ -46,6 +40,9 @@
     <t>html调用</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>创建</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>条件查询多条数据</t>
   </si>
   <si>
+    <t>只能用update方法更新数据</t>
+  </si>
+  <si>
     <t>exclude()</t>
   </si>
   <si>
@@ -118,6 +118,47 @@
     <t>{{ 取出字典.键名 }}</t>
   </si>
   <si>
+    <t>first()</t>
+  </si>
+  <si>
+    <t>返回第一条（最旧）数据</t>
+  </si>
+  <si>
+    <t>last()</t>
+  </si>
+  <si>
+    <t>返回最后一条（最新）数据</t>
+  </si>
+  <si>
+    <t>count()</t>
+  </si>
+  <si>
+    <t>返回匹配的数据的数量</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>时间复杂度O(1)
+空间复杂度O(1)</t>
+  </si>
+  <si>
+    <t>len()</t>
+  </si>
+  <si>
+    <t>时间复杂度O(n)
+空间复杂度O(n)</t>
+  </si>
+  <si>
+    <t>exists()</t>
+  </si>
+  <si>
+    <t>判断数据是否存在，返回bool值</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>values_list()</t>
   </si>
   <si>
@@ -182,6 +223,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>包含指定值，</t>
     </r>
     <r>
@@ -317,60 +364,18 @@
   <si>
     <t>删除某条数据</t>
   </si>
-  <si>
-    <t>first()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>last()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>count()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>exists()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回第一条（最旧）数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回最后一条（最新）数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回匹配的数据的数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断数据是否存在，返回bool值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能用update方法更新数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,10 +390,167 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -396,29 +558,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +568,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -455,9 +782,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -480,39 +1049,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -770,23 +1383,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.75" customWidth="1"/>
@@ -795,7 +1409,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,1212 +1435,1241 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" ht="33.95" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" ht="33.95" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" ht="33.95" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" ht="33.95" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="12" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" ht="33.95" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" ht="33.95" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" ht="33.95" customHeight="1" spans="1:11">
       <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" ht="33.95" customHeight="1" spans="1:11">
       <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
+      <c r="H9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="33.95" customHeight="1" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" ht="33.95" customHeight="1" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>98</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" ht="33.95" customHeight="1" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" ht="33.95" customHeight="1" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" ht="33.95" customHeight="1" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" ht="33.95" customHeight="1" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" ht="33.95" customHeight="1" spans="1:11">
       <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>40</v>
+      <c r="H16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" ht="33.95" customHeight="1" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" ht="33.95" customHeight="1" spans="1:11">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" ht="33.95" customHeight="1" spans="1:11">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" ht="33.95" customHeight="1" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" ht="33.95" customHeight="1" spans="1:11">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" ht="33.95" customHeight="1" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" ht="33.95" customHeight="1" spans="1:11">
       <c r="A23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" ht="33.95" customHeight="1" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" ht="33.95" customHeight="1" spans="1:11">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" ht="33.95" customHeight="1" spans="1:11">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" ht="33.95" customHeight="1" spans="1:11">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" ht="33.95" customHeight="1" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" ht="33.95" customHeight="1" spans="1:11">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E29" s="7"/>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" ht="33.95" customHeight="1" spans="1:11">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>78</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" ht="33.95" customHeight="1" spans="1:11">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E31" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" ht="33.95" customHeight="1" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" ht="33.95" customHeight="1" spans="1:11">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" ht="33.95" customHeight="1" spans="1:11">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>